--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H2">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I2">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J2">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N2">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O2">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P2">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q2">
-        <v>193.7117076189203</v>
+        <v>83.28178894482149</v>
       </c>
       <c r="R2">
-        <v>774.846830475681</v>
+        <v>333.1271557792859</v>
       </c>
       <c r="S2">
-        <v>0.03059999942966092</v>
+        <v>0.02353079484245026</v>
       </c>
       <c r="T2">
-        <v>0.02126210570320045</v>
+        <v>0.01776919077881899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H3">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I3">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J3">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.975685</v>
       </c>
       <c r="O3">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P3">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q3">
-        <v>726.3460771548308</v>
+        <v>258.2951533324525</v>
       </c>
       <c r="R3">
-        <v>4358.076462928985</v>
+        <v>1549.770919994715</v>
       </c>
       <c r="S3">
-        <v>0.1147384937125163</v>
+        <v>0.0729798235469232</v>
       </c>
       <c r="T3">
-        <v>0.1195873542652818</v>
+        <v>0.08266565683134337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H4">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I4">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J4">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N4">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O4">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P4">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q4">
-        <v>382.5415810926605</v>
+        <v>133.564703475555</v>
       </c>
       <c r="R4">
-        <v>2295.249486555963</v>
+        <v>801.38822085333</v>
       </c>
       <c r="S4">
-        <v>0.06042883162377157</v>
+        <v>0.03773794578017904</v>
       </c>
       <c r="T4">
-        <v>0.06298256026731096</v>
+        <v>0.04274650065957368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H5">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I5">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J5">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N5">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O5">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P5">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q5">
-        <v>1112.779125812225</v>
+        <v>354.1366786122743</v>
       </c>
       <c r="R5">
-        <v>4451.116503248901</v>
+        <v>1416.546714449097</v>
       </c>
       <c r="S5">
-        <v>0.1757820476301807</v>
+        <v>0.1000593003127405</v>
       </c>
       <c r="T5">
-        <v>0.122140410035927</v>
+        <v>0.07555940240678626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H6">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I6">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J6">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N6">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O6">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P6">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q6">
-        <v>131.184520688187</v>
+        <v>26.276104685259</v>
       </c>
       <c r="R6">
-        <v>787.1071241291221</v>
+        <v>157.656628111554</v>
       </c>
       <c r="S6">
-        <v>0.02072278597706597</v>
+        <v>0.00742416363098576</v>
       </c>
       <c r="T6">
-        <v>0.02159853304517165</v>
+        <v>0.008409493653875562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.5090905</v>
+        <v>19.3839195</v>
       </c>
       <c r="H7">
-        <v>109.018181</v>
+        <v>38.767839</v>
       </c>
       <c r="I7">
-        <v>0.4968355992046299</v>
+        <v>0.2693195261146905</v>
       </c>
       <c r="J7">
-        <v>0.4461306648899932</v>
+        <v>0.2583991365828404</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N7">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O7">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P7">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q7">
-        <v>598.6289523921362</v>
+        <v>97.63954857676251</v>
       </c>
       <c r="R7">
-        <v>3591.773714352817</v>
+        <v>585.8372914605751</v>
       </c>
       <c r="S7">
-        <v>0.09456344083143439</v>
+        <v>0.02758749800141171</v>
       </c>
       <c r="T7">
-        <v>0.09855970157310126</v>
+        <v>0.03124889225244253</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.248962</v>
       </c>
       <c r="I8">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J8">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N8">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O8">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P8">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q8">
-        <v>20.432835777327</v>
+        <v>24.70302618279799</v>
       </c>
       <c r="R8">
-        <v>122.597014663962</v>
+        <v>148.218157096788</v>
       </c>
       <c r="S8">
-        <v>0.003227707663196979</v>
+        <v>0.006979699265108559</v>
       </c>
       <c r="T8">
-        <v>0.00336411092122779</v>
+        <v>0.007906040275151762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.248962</v>
       </c>
       <c r="I9">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J9">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>39.975685</v>
       </c>
       <c r="O9">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P9">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q9">
         <v>76.61545238766332</v>
@@ -1013,10 +1013,10 @@
         <v>689.53907148897</v>
       </c>
       <c r="S9">
-        <v>0.01210269027196747</v>
+        <v>0.02164725943975681</v>
       </c>
       <c r="T9">
-        <v>0.01892122681263948</v>
+        <v>0.03678040381329695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>17.248962</v>
       </c>
       <c r="I10">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J10">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N10">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O10">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P10">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q10">
-        <v>40.350732542414</v>
+        <v>39.61793339046</v>
       </c>
       <c r="R10">
-        <v>363.156592881726</v>
+        <v>356.56140051414</v>
       </c>
       <c r="S10">
-        <v>0.006374072109329079</v>
+        <v>0.01119382129639929</v>
       </c>
       <c r="T10">
-        <v>0.009965161578998979</v>
+        <v>0.01901918663843918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.248962</v>
       </c>
       <c r="I11">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J11">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N11">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O11">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P11">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q11">
-        <v>117.376659437067</v>
+        <v>105.043944839421</v>
       </c>
       <c r="R11">
-        <v>704.259956622402</v>
+        <v>630.2636690365259</v>
       </c>
       <c r="S11">
-        <v>0.01854160368507816</v>
+        <v>0.0296795679676832</v>
       </c>
       <c r="T11">
-        <v>0.01932517376504497</v>
+        <v>0.03361862034294365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.248962</v>
       </c>
       <c r="I12">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J12">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N12">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O12">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P12">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q12">
-        <v>13.837427797716</v>
+        <v>7.794012475548</v>
       </c>
       <c r="R12">
-        <v>124.536850179444</v>
+        <v>70.14611227993201</v>
       </c>
       <c r="S12">
-        <v>0.002185852821818432</v>
+        <v>0.002202153806795978</v>
       </c>
       <c r="T12">
-        <v>0.003417340780542928</v>
+        <v>0.003741633276875214</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>17.248962</v>
       </c>
       <c r="I13">
-        <v>0.05240653924154719</v>
+        <v>0.07988549945244224</v>
       </c>
       <c r="J13">
-        <v>0.0705872251319459</v>
+        <v>0.1149694438152775</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N13">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O13">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P13">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q13">
-        <v>63.14376774709266</v>
+        <v>28.96182173231666</v>
       </c>
       <c r="R13">
-        <v>568.293909723834</v>
+        <v>260.65639559085</v>
       </c>
       <c r="S13">
-        <v>0.009974612690157068</v>
+        <v>0.0081829976766984</v>
       </c>
       <c r="T13">
-        <v>0.01559421127349175</v>
+        <v>0.01390355946857073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H14">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I14">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J14">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N14">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O14">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P14">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q14">
-        <v>0.7981877618855</v>
+        <v>0.2247050872456667</v>
       </c>
       <c r="R14">
-        <v>4.789126571313</v>
+        <v>1.348230523474</v>
       </c>
       <c r="S14">
-        <v>0.0001260870876555787</v>
+        <v>6.348914180428934E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001314155409563347</v>
+        <v>7.191537816661587E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H15">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I15">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J15">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.975685</v>
       </c>
       <c r="O15">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P15">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q15">
-        <v>2.992904026322778</v>
+        <v>0.6969138835761112</v>
       </c>
       <c r="R15">
-        <v>26.936136236905</v>
+        <v>6.272224952185001</v>
       </c>
       <c r="S15">
-        <v>0.0004727791759425995</v>
+        <v>0.000196909046083891</v>
       </c>
       <c r="T15">
-        <v>0.0007391383088620083</v>
+        <v>0.0003345640241256318</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H16">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I16">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J16">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N16">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O16">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P16">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q16">
-        <v>1.576259959677667</v>
+        <v>0.36037492383</v>
       </c>
       <c r="R16">
-        <v>14.186339637099</v>
+        <v>3.24337431447</v>
       </c>
       <c r="S16">
-        <v>0.0002489965860092541</v>
+        <v>0.000101821880947175</v>
       </c>
       <c r="T16">
-        <v>0.0003892788110397622</v>
+        <v>0.0001730034191482216</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H17">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I17">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J17">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N17">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O17">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P17">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q17">
-        <v>4.5851987513955</v>
+        <v>0.9555067713205001</v>
       </c>
       <c r="R17">
-        <v>27.511192508373</v>
+        <v>5.733040627923001</v>
       </c>
       <c r="S17">
-        <v>0.0007243087209452702</v>
+        <v>0.0002699729927921148</v>
       </c>
       <c r="T17">
-        <v>0.0007549180820356752</v>
+        <v>0.0003058036275126702</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H18">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I18">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J18">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N18">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O18">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P18">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q18">
-        <v>0.540544917234</v>
+        <v>0.07089634445400002</v>
       </c>
       <c r="R18">
-        <v>4.864904255106</v>
+        <v>0.6380671000860002</v>
       </c>
       <c r="S18">
-        <v>8.538809740713341E-05</v>
+        <v>2.003135808636461E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001334949107870938</v>
+        <v>3.403485976576434E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2246043333333333</v>
+        <v>0.05230033333333334</v>
       </c>
       <c r="H19">
-        <v>0.673813</v>
+        <v>0.156901</v>
       </c>
       <c r="I19">
-        <v>0.002047207676958453</v>
+        <v>0.0007266590737220965</v>
       </c>
       <c r="J19">
-        <v>0.002757417514620988</v>
+        <v>0.001045791665844058</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N19">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O19">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P19">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q19">
-        <v>2.466646490204556</v>
+        <v>0.2634441882138889</v>
       </c>
       <c r="R19">
-        <v>22.199818411841</v>
+        <v>2.370997693925</v>
       </c>
       <c r="S19">
-        <v>0.000389648008998617</v>
+        <v>7.443465400826181E-05</v>
       </c>
       <c r="T19">
-        <v>0.0006091718609401131</v>
+        <v>0.0001264703571251543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H20">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I20">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J20">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N20">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O20">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P20">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q20">
-        <v>107.5532176336035</v>
+        <v>199.811413831722</v>
       </c>
       <c r="R20">
-        <v>430.212870534414</v>
+        <v>799.2456553268879</v>
       </c>
       <c r="S20">
-        <v>0.01698982698929558</v>
+        <v>0.05645557625052113</v>
       </c>
       <c r="T20">
-        <v>0.01180521255093021</v>
+        <v>0.04263221500337609</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H21">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I21">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J21">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.975685</v>
       </c>
       <c r="O21">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P21">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q21">
-        <v>403.2841312164317</v>
+        <v>619.70714638987</v>
       </c>
       <c r="R21">
-        <v>2419.70478729859</v>
+        <v>3718.24287833922</v>
       </c>
       <c r="S21">
-        <v>0.06370546384057992</v>
+        <v>0.1750947224940351</v>
       </c>
       <c r="T21">
-        <v>0.06639766329882085</v>
+        <v>0.1983331767493899</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H22">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I22">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J22">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N22">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O22">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P22">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q22">
-        <v>212.395928108287</v>
+        <v>320.45123642994</v>
       </c>
       <c r="R22">
-        <v>1274.375568649722</v>
+        <v>1922.70741857964</v>
       </c>
       <c r="S22">
-        <v>0.03355148410421159</v>
+        <v>0.09054167059785896</v>
       </c>
       <c r="T22">
-        <v>0.03496937327545408</v>
+        <v>0.1025583004563827</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H23">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I23">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J23">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N23">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O23">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P23">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q23">
-        <v>617.8406920662735</v>
+        <v>849.652142920119</v>
       </c>
       <c r="R23">
-        <v>2471.362768265094</v>
+        <v>3398.608571680476</v>
       </c>
       <c r="S23">
-        <v>0.0975982559714047</v>
+        <v>0.2400643708043776</v>
       </c>
       <c r="T23">
-        <v>0.06781517887547933</v>
+        <v>0.1812837021690653</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H24">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I24">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J24">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N24">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O24">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P24">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q24">
-        <v>72.836678160378</v>
+        <v>63.04218117397201</v>
       </c>
       <c r="R24">
-        <v>437.0200689622681</v>
+        <v>378.2530870438321</v>
       </c>
       <c r="S24">
-        <v>0.01150576977283469</v>
+        <v>0.01781220901256295</v>
       </c>
       <c r="T24">
-        <v>0.01199200478756728</v>
+        <v>0.02017623345847031</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.264707</v>
+        <v>46.506306</v>
       </c>
       <c r="H25">
-        <v>60.529414</v>
+        <v>93.012612</v>
       </c>
       <c r="I25">
-        <v>0.2758546088215792</v>
+        <v>0.6461570526675364</v>
       </c>
       <c r="J25">
-        <v>0.2477020572671421</v>
+        <v>0.6199566251839504</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N25">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O25">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P25">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q25">
-        <v>332.3726314212663</v>
+        <v>234.25885171535</v>
       </c>
       <c r="R25">
-        <v>1994.235788527598</v>
+        <v>1405.5531102921</v>
       </c>
       <c r="S25">
-        <v>0.0525038081432527</v>
+        <v>0.06618850350818065</v>
       </c>
       <c r="T25">
-        <v>0.05472262447889033</v>
+        <v>0.0749729973472662</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H26">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I26">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J26">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N26">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O26">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P26">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q26">
-        <v>67.134758333954</v>
+        <v>0.5721651081639998</v>
       </c>
       <c r="R26">
-        <v>402.808550003724</v>
+        <v>3.432990648983999</v>
       </c>
       <c r="S26">
-        <v>0.01060505630754538</v>
+        <v>0.0001616619905359587</v>
       </c>
       <c r="T26">
-        <v>0.01105322707853664</v>
+        <v>0.0001831176616058132</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H27">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I27">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J27">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.975685</v>
       </c>
       <c r="O27">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P27">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q27">
-        <v>251.7301042667711</v>
+        <v>1.774547307606666</v>
       </c>
       <c r="R27">
-        <v>2265.57093840094</v>
+        <v>15.97092576846</v>
       </c>
       <c r="S27">
-        <v>0.03976497415502273</v>
+        <v>0.0005013882285979807</v>
       </c>
       <c r="T27">
-        <v>0.06216816908292392</v>
+        <v>0.0008518982075485554</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H28">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I28">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J28">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N28">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O28">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P28">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q28">
-        <v>132.5776170940947</v>
+        <v>0.9176203342799999</v>
       </c>
       <c r="R28">
-        <v>1193.198553846852</v>
+        <v>8.258583008519999</v>
       </c>
       <c r="S28">
-        <v>0.02094284882071246</v>
+        <v>0.0002592683959215783</v>
       </c>
       <c r="T28">
-        <v>0.03274184365085808</v>
+        <v>0.0004405174855763882</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H29">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I29">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J29">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N29">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O29">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P29">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q29">
-        <v>385.656389119434</v>
+        <v>2.433000702678</v>
       </c>
       <c r="R29">
-        <v>2313.938334716604</v>
+        <v>14.598004216068</v>
       </c>
       <c r="S29">
-        <v>0.06092086757252423</v>
+        <v>0.0006874304828416297</v>
       </c>
       <c r="T29">
-        <v>0.06349538970589647</v>
+        <v>0.0007786657959436329</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H30">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I30">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J30">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N30">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O30">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P30">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q30">
-        <v>45.464681519832</v>
+        <v>0.180522902664</v>
       </c>
       <c r="R30">
-        <v>409.182133678488</v>
+        <v>1.624706123976</v>
       </c>
       <c r="S30">
-        <v>0.00718190575921954</v>
+        <v>5.100571734553662E-05</v>
       </c>
       <c r="T30">
-        <v>0.01122812075361024</v>
+        <v>8.666274296645086E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>18.89124133333333</v>
+        <v>0.133172</v>
       </c>
       <c r="H31">
-        <v>56.673724</v>
+        <v>0.399516</v>
       </c>
       <c r="I31">
-        <v>0.1721885491295427</v>
+        <v>0.001850287292605892</v>
       </c>
       <c r="J31">
-        <v>0.2319235740129618</v>
+        <v>0.002662892544798023</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N31">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O31">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P31">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q31">
-        <v>207.4671197964742</v>
+        <v>0.6708062300333333</v>
       </c>
       <c r="R31">
-        <v>1867.204078168268</v>
+        <v>6.0372560703</v>
       </c>
       <c r="S31">
-        <v>0.03277289651451833</v>
+        <v>0.0001895324773632082</v>
       </c>
       <c r="T31">
-        <v>0.05123682374113641</v>
+        <v>0.0003220306511571829</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H32">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I32">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J32">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.5537505</v>
+        <v>4.296436999999999</v>
       </c>
       <c r="N32">
-        <v>7.107501</v>
+        <v>8.592873999999998</v>
       </c>
       <c r="O32">
-        <v>0.06158978841018559</v>
+        <v>0.08737129157293111</v>
       </c>
       <c r="P32">
-        <v>0.04765892007993501</v>
+        <v>0.06876644796033347</v>
       </c>
       <c r="Q32">
-        <v>0.260250625783</v>
+        <v>0.6373162788319998</v>
       </c>
       <c r="R32">
-        <v>1.561503754698</v>
+        <v>3.823897672992</v>
       </c>
       <c r="S32">
-        <v>4.111093283114949E-05</v>
+        <v>0.000180070082510903</v>
       </c>
       <c r="T32">
-        <v>4.284828508358375E-05</v>
+        <v>0.0002039688632141885</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H33">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I33">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J33">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>39.975685</v>
       </c>
       <c r="O33">
-        <v>0.2309385516983846</v>
+        <v>0.2709785829485105</v>
       </c>
       <c r="P33">
-        <v>0.2680545492087383</v>
+        <v>0.3199146015909443</v>
       </c>
       <c r="Q33">
-        <v>0.9758420047922223</v>
+        <v>1.976611070053333</v>
       </c>
       <c r="R33">
-        <v>8.78257804313</v>
+        <v>17.78949963048</v>
       </c>
       <c r="S33">
-        <v>0.0001541505423555753</v>
+        <v>0.0005584801931134927</v>
       </c>
       <c r="T33">
-        <v>0.0002409974402102149</v>
+        <v>0.0009489019652398591</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H34">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I34">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J34">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.017941</v>
+        <v>6.89049</v>
       </c>
       <c r="N34">
-        <v>21.053823</v>
+        <v>20.67147</v>
       </c>
       <c r="O34">
-        <v>0.1216274190507089</v>
+        <v>0.140123318663899</v>
       </c>
       <c r="P34">
-        <v>0.1411751426744924</v>
+        <v>0.1654281868928364</v>
       </c>
       <c r="Q34">
-        <v>0.5139425339393334</v>
+        <v>1.02210772464</v>
       </c>
       <c r="R34">
-        <v>4.625482805454</v>
+        <v>9.19896952176</v>
       </c>
       <c r="S34">
-        <v>8.118580667493964E-05</v>
+        <v>0.0002887907125929117</v>
       </c>
       <c r="T34">
-        <v>0.0001269250908305623</v>
+        <v>0.0004906782337162401</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H35">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I35">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J35">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.4145605</v>
+        <v>18.2696115</v>
       </c>
       <c r="N35">
-        <v>40.829121</v>
+        <v>36.539223</v>
       </c>
       <c r="O35">
-        <v>0.3538032458052225</v>
+        <v>0.3715263492262718</v>
       </c>
       <c r="P35">
-        <v>0.2737772129294102</v>
+        <v>0.292413525083752</v>
       </c>
       <c r="Q35">
-        <v>1.495012704243</v>
+        <v>2.710041091464</v>
       </c>
       <c r="R35">
-        <v>8.970076225458</v>
+        <v>16.260246548784</v>
       </c>
       <c r="S35">
-        <v>0.000236162225089504</v>
+        <v>0.0007657066658366321</v>
       </c>
       <c r="T35">
-        <v>0.0002461424650267563</v>
+        <v>0.0008673307415004261</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H36">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I36">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J36">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.406654</v>
+        <v>1.355562</v>
       </c>
       <c r="N36">
-        <v>7.219962000000001</v>
+        <v>4.066686000000001</v>
       </c>
       <c r="O36">
-        <v>0.04170954337861558</v>
+        <v>0.02756637715092428</v>
       </c>
       <c r="P36">
-        <v>0.04841302054521945</v>
+        <v>0.03254458882907125</v>
       </c>
       <c r="Q36">
-        <v>0.176245690164</v>
+        <v>0.201078644832</v>
       </c>
       <c r="R36">
-        <v>1.586211211476</v>
+        <v>1.809707803488</v>
       </c>
       <c r="S36">
-        <v>2.784095026981136E-05</v>
+        <v>5.68136251476851E-05</v>
       </c>
       <c r="T36">
-        <v>4.352626754025663E-05</v>
+        <v>9.653083711794862E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.07323266666666667</v>
+        <v>0.148336</v>
       </c>
       <c r="H37">
-        <v>0.219698</v>
+        <v>0.445008</v>
       </c>
       <c r="I37">
-        <v>0.0006674959257426293</v>
+        <v>0.0020609753990027</v>
       </c>
       <c r="J37">
-        <v>0.0008990611833360321</v>
+        <v>0.002966110207289517</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>10.98218566666667</v>
+        <v>5.037141666666667</v>
       </c>
       <c r="N37">
-        <v>32.946557</v>
+        <v>15.111425</v>
       </c>
       <c r="O37">
-        <v>0.1903314516568828</v>
+        <v>0.1024340804374633</v>
       </c>
       <c r="P37">
-        <v>0.2209211545622045</v>
+        <v>0.1209326496430627</v>
       </c>
       <c r="Q37">
-        <v>0.8042547421984444</v>
+        <v>0.7471894462666667</v>
       </c>
       <c r="R37">
-        <v>7.238292679785999</v>
+        <v>6.724705016400001</v>
       </c>
       <c r="S37">
-        <v>0.0001270454685216495</v>
+        <v>0.0002111141198010756</v>
       </c>
       <c r="T37">
-        <v>0.000198621634644658</v>
+        <v>0.0003586995665008552</v>
       </c>
     </row>
   </sheetData>
